--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -58,66 +61,66 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -130,82 +133,100 @@
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>food</t>
@@ -566,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4965753424657534</v>
+        <v>0.4828767123287671</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,31 +674,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.09883720930232558</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,31 +724,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +782,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N8">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,25 +860,25 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.8440366972477065</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.84251968503937</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -943,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -969,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="N14">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.7058823529411765</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N15">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1021,25 +1042,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.68</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1047,25 +1068,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,25 +1094,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6491228070175439</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,25 +1120,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6437768240343348</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1125,13 +1146,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6078431372549019</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,25 +1172,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6043956043956044</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1177,13 +1198,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5985915492957746</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L22">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1224,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5957446808510638</v>
+        <v>0.6126760563380281</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,25 +1250,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.53125</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,25 +1276,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5274390243902439</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,25 +1302,25 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.46875</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1307,25 +1328,25 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4545454545454545</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1333,25 +1354,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4411764705882353</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1359,25 +1380,25 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4251968503937008</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>219</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1385,13 +1406,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.296875</v>
+        <v>0.4151436031331593</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1403,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1411,25 +1432,25 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2347417840375587</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>163</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1437,25 +1458,25 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.2313253012048193</v>
+        <v>0.328125</v>
       </c>
       <c r="L32">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>319</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1463,25 +1484,25 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2291666666666667</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1489,25 +1510,25 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.1708860759493671</v>
+        <v>0.2465116279069768</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1515,25 +1536,25 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.1604938271604938</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>136</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1541,25 +1562,25 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.1582278481012658</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1567,13 +1588,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1468531468531468</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1585,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1593,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1386861313868613</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1611,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1619,25 +1640,25 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1355932203389831</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L39">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>357</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1645,25 +1666,25 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1102449888641425</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L40">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>799</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1671,25 +1692,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1089887640449438</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="L41">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>793</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1697,25 +1718,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.107981220657277</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1723,25 +1744,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.09876543209876543</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>292</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1749,13 +1770,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.09565217391304348</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1767,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>208</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1775,25 +1796,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.09328599096191091</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="L45">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="M45">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2809</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1801,25 +1822,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.09274004683840749</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L46">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1937</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1827,25 +1848,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.09248554913294797</v>
+        <v>0.1118568232662192</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>314</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1853,25 +1874,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.0847457627118644</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1879,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.08230452674897119</v>
+        <v>0.1088825214899714</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1897,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>446</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1905,25 +1926,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.06646058732612056</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>604</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1931,25 +1952,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.06188925081433225</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1957,25 +1978,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.05276816608996539</v>
+        <v>0.1040597293513766</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="M52">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="N52">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1095</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1983,25 +2004,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.05214368482039398</v>
+        <v>0.1</v>
       </c>
       <c r="L53">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>818</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2009,25 +2030,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.04770318021201413</v>
+        <v>0.09623430962343096</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>539</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2035,25 +2056,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.0444305381727159</v>
+        <v>0.09322974472807991</v>
       </c>
       <c r="L55">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="M55">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3054</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2061,25 +2082,207 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.01975051975051975</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>943</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>0.08153846153846153</v>
+      </c>
+      <c r="L57">
+        <v>53</v>
+      </c>
+      <c r="M57">
+        <v>53</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.07818930041152264</v>
+      </c>
+      <c r="L58">
+        <v>38</v>
+      </c>
+      <c r="M58">
+        <v>38</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.07231040564373897</v>
+      </c>
+      <c r="L59">
+        <v>41</v>
+      </c>
+      <c r="M59">
+        <v>41</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>0.06920415224913495</v>
+      </c>
+      <c r="L60">
+        <v>60</v>
+      </c>
+      <c r="M60">
+        <v>60</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <v>0.05154639175257732</v>
+      </c>
+      <c r="L61">
+        <v>165</v>
+      </c>
+      <c r="M61">
+        <v>165</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.04995693367786391</v>
+      </c>
+      <c r="L62">
+        <v>58</v>
+      </c>
+      <c r="M62">
+        <v>58</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.02789256198347108</v>
+      </c>
+      <c r="L63">
+        <v>27</v>
+      </c>
+      <c r="M63">
+        <v>27</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
